--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Navia Benefit\Navia\DocumentUnderstandingProcess3\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Navia Benefit\Navia-DU-Framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="212">
   <si>
     <t>Name</t>
   </si>
@@ -652,6 +652,12 @@
   </si>
   <si>
     <t>Shared</t>
+  </si>
+  <si>
+    <t>DocumentFolderLocation</t>
+  </si>
+  <si>
+    <t>OutputFolder</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3693,8 +3699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3924,8 +3930,28 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="210">
   <si>
     <t>Name</t>
   </si>
@@ -414,9 +414,6 @@
     <t>True</t>
   </si>
   <si>
-    <t>AlwaysValidateClassification</t>
-  </si>
-  <si>
     <t>LogMessage_ExtractionBusinessRuleValidationStart</t>
   </si>
   <si>
@@ -457,9 +454,6 @@
   </si>
   <si>
     <t>SkipExtractorTraining</t>
-  </si>
-  <si>
-    <t>If set to True, classification will always go through manual validation. Has a corresponding asset that can be configured to overwrite this setting.</t>
   </si>
   <si>
     <t>If set to True, extracted data will always go through manual validation. Has a corresponding asset that can be configured to overwrite this setting.</t>
@@ -1056,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z984"/>
+  <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1112,7 +1106,7 @@
         <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -1194,88 +1188,68 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
         <v>188</v>
       </c>
-      <c r="C10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>129</v>
+      <c r="A13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14">
-        <v>0.5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>164</v>
+        <v>182</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" t="s">
-        <v>185</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B16" s="2"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B17" s="5"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B18" s="2"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" s="2"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5"/>
-    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2236,7 +2210,6 @@
     <row r="981" ht="14.25" customHeight="1"/>
     <row r="982" ht="14.25" customHeight="1"/>
     <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2423,7 +2396,7 @@
         <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
@@ -2439,7 +2412,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
@@ -2447,7 +2420,7 @@
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
@@ -2463,7 +2436,7 @@
         <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
@@ -2503,7 +2476,7 @@
         <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
@@ -2519,7 +2492,7 @@
         <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
@@ -2535,7 +2508,7 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
@@ -2564,18 +2537,18 @@
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2631,18 +2604,18 @@
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
@@ -2671,10 +2644,10 @@
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2691,7 +2664,7 @@
         <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2700,7 +2673,7 @@
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2725,7 +2698,7 @@
         <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" customHeight="1">
@@ -3700,7 +3673,7 @@
   <dimension ref="A1:AA996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3753,13 +3726,13 @@
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="14.25" customHeight="1">
@@ -3767,13 +3740,13 @@
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1">
@@ -3781,13 +3754,13 @@
         <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1">
@@ -3795,27 +3768,27 @@
         <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1">
@@ -3823,13 +3796,13 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1">
@@ -3837,80 +3810,80 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -3924,7 +3897,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>86</v>
@@ -3932,42 +3905,59 @@
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -4967,15 +4957,15 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
         <v>120</v>
@@ -4983,7 +4973,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
         <v>121</v>
@@ -4991,7 +4981,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -4999,7 +4989,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>123</v>
@@ -5007,15 +4997,15 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
         <v>124</v>
@@ -5023,10 +5013,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
         <v>125</v>
@@ -5034,10 +5024,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
         <v>126</v>
@@ -5045,10 +5035,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
         <v>127</v>
@@ -5056,10 +5046,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C14" t="s">
         <v>128</v>
@@ -5067,7 +5057,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B15" s="7">
         <v>100</v>
@@ -5075,15 +5065,15 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B17">
         <v>100</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="215">
   <si>
     <t>Name</t>
   </si>
@@ -652,6 +652,21 @@
   </si>
   <si>
     <t>OutputFolder</t>
+  </si>
+  <si>
+    <t>SendBusinessMail</t>
+  </si>
+  <si>
+    <t>DUSubjectLine</t>
+  </si>
+  <si>
+    <t>EmailAccount</t>
+  </si>
+  <si>
+    <t>EmailCC</t>
+  </si>
+  <si>
+    <t>EmailTo</t>
   </si>
 </sst>
 </file>
@@ -3673,7 +3688,7 @@
   <dimension ref="A1:AA996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3940,14 +3955,60 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1"/>
+      <c r="A18" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:4" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:4" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Navia Benefit\Navia-DU-Framework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Pharmacy Claims Process\Navia-DU-Framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="212">
   <si>
     <t>Name</t>
   </si>
@@ -540,12 +540,6 @@
     <t>LogMessage_ReceiptPostProcessing_ConfidenceFieldsFailure</t>
   </si>
   <si>
-    <t>SubTotalAdditionsReceipt</t>
-  </si>
-  <si>
-    <t>Tax Amount</t>
-  </si>
-  <si>
     <t>MandatoryFieldsReceipt</t>
   </si>
   <si>
@@ -619,9 +613,6 @@
   </si>
   <si>
     <t>RxNumber,Amount</t>
-  </si>
-  <si>
-    <t>DateOfService,TotalAmount</t>
   </si>
   <si>
     <t>Confidence</t>
@@ -1067,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1203,13 +1194,13 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" t="s">
         <v>186</v>
-      </c>
-      <c r="C10" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1237,13 +1228,13 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -2619,18 +2610,18 @@
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
@@ -2659,10 +2650,10 @@
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3687,7 +3678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3744,7 +3735,7 @@
         <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D2" t="s">
         <v>155</v>
@@ -3758,7 +3749,7 @@
         <v>153</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
         <v>156</v>
@@ -3772,7 +3763,7 @@
         <v>151</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
         <v>157</v>
@@ -3786,7 +3777,7 @@
         <v>152</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
         <v>158</v>
@@ -3794,16 +3785,16 @@
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1">
@@ -3811,10 +3802,10 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
         <v>159</v>
@@ -3825,10 +3816,10 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D8" t="s">
         <v>160</v>
@@ -3836,13 +3827,13 @@
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>162</v>
@@ -3850,30 +3841,30 @@
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1">
@@ -3884,7 +3875,7 @@
         <v>134</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>144</v>
@@ -3892,13 +3883,13 @@
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -3912,7 +3903,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>86</v>
@@ -3920,24 +3911,24 @@
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
@@ -3948,7 +3939,7 @@
         <v>143</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>146</v>
@@ -3956,57 +3947,57 @@
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1"/>
@@ -4994,7 +4985,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5073,22 +5064,16 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" t="s">
-        <v>173</v>
-      </c>
       <c r="C11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C12" t="s">
         <v>126</v>
@@ -5096,10 +5081,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
         <v>127</v>
@@ -5107,10 +5092,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
         <v>128</v>
@@ -5118,7 +5103,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B15" s="7">
         <v>100</v>
@@ -5126,15 +5111,15 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B17">
         <v>100</v>
